--- a/PA-VA-listeQuestions.xlsx
+++ b/PA-VA-listeQuestions.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC10484E719B4AA05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E81DEF-E0E5-4D40-A169-31AEFD63BBD2}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_F25DC773A252ABDACC10484E719B4AA05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31246A48-1075-4418-8C79-FA993D88CFE0}"/>
   <bookViews>
-    <workbookView xWindow="-28470" yWindow="90" windowWidth="28155" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P4-VA" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictonaire des donnes " sheetId="3" r:id="rId2"/>
+    <sheet name="Proteines" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -134,13 +146,187 @@
     <t>Faire liste 
 faire graphes plus précis …. Enfant - obésité …....
 1,2,2 graph Snut 2017</t>
+  </si>
+  <si>
+    <t>A faire2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fait </t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>SecuAlim</t>
+  </si>
+  <si>
+    <t>BilanAlim</t>
+  </si>
+  <si>
+    <t>echelle</t>
+  </si>
+  <si>
+    <t>Monde</t>
+  </si>
+  <si>
+    <t>Monde 2017</t>
+  </si>
+  <si>
+    <t>Pays 2017</t>
+  </si>
+  <si>
+    <t>AideAlim</t>
+  </si>
+  <si>
+    <t>Pays2013-2016</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>source:  https://bmcpublichealth.biomedcentral.com/articles/10.1186/1471-2458-12-439/tables/3</t>
+  </si>
+  <si>
+    <t>WHO region</t>
+  </si>
+  <si>
+    <t>Adult population (millions)</t>
+  </si>
+  <si>
+    <t>Average body mass (kg)</t>
+  </si>
+  <si>
+    <t>Biomass (million kg)</t>
+  </si>
+  <si>
+    <t>No of people overweight / total population</t>
+  </si>
+  <si>
+    <t>Biomass due to BMI &gt; 25 (million kg)</t>
+  </si>
+  <si>
+    <t>Biomass due to BMI &gt; 30 (million kg)</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>57.7</t>
+  </si>
+  <si>
+    <t>24.2%</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>55.6%</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>28.9%</t>
+  </si>
+  <si>
+    <t>Latin Am. Caribbean</t>
+  </si>
+  <si>
+    <t>67.9</t>
+  </si>
+  <si>
+    <t>57.9%</t>
+  </si>
+  <si>
+    <t>Northern Am.</t>
+  </si>
+  <si>
+    <t>80.7</t>
+  </si>
+  <si>
+    <t>73.9%</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>74.1</t>
+  </si>
+  <si>
+    <t>63.3%</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>34.7%</t>
+  </si>
+  <si>
+    <t>Scenario (1): all countries have BMI distribution of Japan</t>
+  </si>
+  <si>
+    <t>58.8</t>
+  </si>
+  <si>
+    <t>272408 (−5%)</t>
+  </si>
+  <si>
+    <t>22.3%</t>
+  </si>
+  <si>
+    <t>5630 (−64%)</t>
+  </si>
+  <si>
+    <t>253 (−93%)</t>
+  </si>
+  <si>
+    <t>Scenario (2): all countries have BMI distribution of USA</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>345426 (+20%)</t>
+  </si>
+  <si>
+    <t>74.0%</t>
+  </si>
+  <si>
+    <t>53090 (+243%)</t>
+  </si>
+  <si>
+    <t>18789 (+434%)</t>
+  </si>
+  <si>
+    <t>Code Element</t>
+  </si>
+  <si>
+    <t>Disponibilité intérieure</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>Production + importations - exportations + évolution des stocks (augmentation ou diminution) = disponibilités servant à une utilisation intérieure.Il existe plusieurs définitions des disponibilités et, dans la pratique, plusieurs notions entrent en jeu. Les éléments concernés sont la production, les importations, les exportations et l'évolution des stocks (augmentation ou diminution). La production, les importations et l'évolution des stocks (à la hausse ou à la baisse) représentent, sans conteste, des éléments constitutifs des disponibilités. Source: Division de la statistique (FAO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +340,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -171,20 +395,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -213,7 +629,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Style de tableau 1" pivot="0" count="0" xr9:uid="{FFB32367-1379-4AFB-8ADD-AFFC7C302C47}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,16 +644,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D6FA393-D267-443E-B0A8-02CFAA82CEF5}" name="Tableau1" displayName="Tableau1" ref="A1:G11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G11" xr:uid="{6D6FA393-D267-443E-B0A8-02CFAA82CEF5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15E46C4E-F84A-4754-BFF5-15F9C693FB5A}" name="Question " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B1AF6377-605D-49DF-BA44-04D7301F404E}" name="Nom" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E842462B-8D47-4A90-ADDD-979F792B9E28}" name="Texte" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{AE5A217C-A508-44D6-90D6-2939E70B321D}" name="Reponse Collab" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E60254EF-474D-4666-A366-11993A9817F8}" name="Checklist" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{ACCB8D9E-D2D1-4B74-B550-2B8923CC1055}" name="Doblechek" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00311F38-7E4F-4D54-8357-0F17D0DCDAA5}" name="A faire" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D6FA393-D267-443E-B0A8-02CFAA82CEF5}" name="Tableau1" displayName="Tableau1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L11" xr:uid="{6D6FA393-D267-443E-B0A8-02CFAA82CEF5}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{15E46C4E-F84A-4754-BFF5-15F9C693FB5A}" name="Question " dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B1AF6377-605D-49DF-BA44-04D7301F404E}" name="Nom" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E842462B-8D47-4A90-ADDD-979F792B9E28}" name="Texte" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{AE5A217C-A508-44D6-90D6-2939E70B321D}" name="Reponse Collab" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E60254EF-474D-4666-A366-11993A9817F8}" name="Checklist" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{ACCB8D9E-D2D1-4B74-B550-2B8923CC1055}" name="Doblechek" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00311F38-7E4F-4D54-8357-0F17D0DCDAA5}" name="A faire" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{DAEF4DEA-F7AD-4C4E-AFDF-3F02FD02B433}" name="A faire2" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{14E736A8-8BBA-42B1-A698-17B6D742CF85}" name="Fait " dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{32D7EAAF-D209-427F-92D0-7C38EA0953EC}" name="Section" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{0E6D913D-CE30-4B3E-BC9C-917CC657353C}" name="echelle" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{CE0DA8B7-B3C3-4C4E-ABE0-F394877DF4E4}" name="Df" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,25 +927,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="106.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="19.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +969,23 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,8 +998,14 @@
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,8 +1015,14 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -580,8 +1032,14 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,8 +1049,14 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,8 +1072,14 @@
       <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,8 +1089,14 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,8 +1106,14 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,8 +1140,14 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -668,6 +1156,12 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -678,4 +1172,302 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A73087-BC8C-4091-A68F-394E835A00B8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5301</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F59C44-0E0C-428B-BC76-4EA45223BE0C}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="100.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2815</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2">
+        <v>162408</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4265</v>
+      </c>
+      <c r="G2" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2">
+        <v>606</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42895</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3836</v>
+      </c>
+      <c r="G3" s="7">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2">
+        <v>535</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32484</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1464</v>
+      </c>
+      <c r="G4" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>386</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26231</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2431</v>
+      </c>
+      <c r="G5" s="7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2">
+        <v>263</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21185</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3297</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1815</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2">
+        <v>191</v>
+      </c>
+      <c r="G7" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4630</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>287017</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15484</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4630</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4630</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>